--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5417246644817</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H2">
-        <v>47.5417246644817</v>
+        <v>155.921171</v>
       </c>
       <c r="I2">
-        <v>0.9761767621051901</v>
+        <v>0.9609723860600281</v>
       </c>
       <c r="J2">
-        <v>0.9761767621051901</v>
+        <v>0.9704070819667431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.7837376171942</v>
+        <v>58.63918933333334</v>
       </c>
       <c r="N2">
-        <v>56.7837376171942</v>
+        <v>175.917568</v>
       </c>
       <c r="O2">
-        <v>0.9267119681372367</v>
+        <v>0.915320670669077</v>
       </c>
       <c r="P2">
-        <v>0.9267119681372367</v>
+        <v>0.923685878527411</v>
       </c>
       <c r="Q2">
-        <v>2699.596819216819</v>
+        <v>3047.697022448015</v>
       </c>
       <c r="R2">
-        <v>2699.596819216819</v>
+        <v>27429.27320203213</v>
       </c>
       <c r="S2">
-        <v>0.9046346884603358</v>
+        <v>0.8795978889029281</v>
       </c>
       <c r="T2">
-        <v>0.9046346884603358</v>
+        <v>0.8963513180356725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5417246644817</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H3">
-        <v>47.5417246644817</v>
+        <v>155.921171</v>
       </c>
       <c r="I3">
-        <v>0.9761767621051901</v>
+        <v>0.9609723860600281</v>
       </c>
       <c r="J3">
-        <v>0.9761767621051901</v>
+        <v>0.9704070819667431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.29472873538252</v>
+        <v>3.605681</v>
       </c>
       <c r="N3">
-        <v>3.29472873538252</v>
+        <v>10.817043</v>
       </c>
       <c r="O3">
-        <v>0.05377005246516409</v>
+        <v>0.05628240070608663</v>
       </c>
       <c r="P3">
-        <v>0.05377005246516409</v>
+        <v>0.0567967712384688</v>
       </c>
       <c r="Q3">
-        <v>156.6370863817118</v>
+        <v>187.4006679241504</v>
       </c>
       <c r="R3">
-        <v>156.6370863817118</v>
+        <v>1686.606011317353</v>
       </c>
       <c r="S3">
-        <v>0.05248907571367008</v>
+        <v>0.05408583289971468</v>
       </c>
       <c r="T3">
-        <v>0.05248907571367008</v>
+        <v>0.05511598904265515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5417246644817</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H4">
-        <v>47.5417246644817</v>
+        <v>155.921171</v>
       </c>
       <c r="I4">
-        <v>0.9761767621051901</v>
+        <v>0.9609723860600281</v>
       </c>
       <c r="J4">
-        <v>0.9761767621051901</v>
+        <v>0.9704070819667431</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.19595285162752</v>
+        <v>0.045876</v>
       </c>
       <c r="N4">
-        <v>1.19595285162752</v>
+        <v>0.137628</v>
       </c>
       <c r="O4">
-        <v>0.01951797939759928</v>
+        <v>0.0007160953547450344</v>
       </c>
       <c r="P4">
-        <v>0.01951797939759928</v>
+        <v>0.0007226398223625426</v>
       </c>
       <c r="Q4">
-        <v>56.85766118377729</v>
+        <v>2.384346546932</v>
       </c>
       <c r="R4">
-        <v>56.85766118377729</v>
+        <v>21.459118922388</v>
       </c>
       <c r="S4">
-        <v>0.01905299793118427</v>
+        <v>0.000688147861695838</v>
       </c>
       <c r="T4">
-        <v>0.01905299793118427</v>
+        <v>0.0007012548013318005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.16023845329915</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H5">
-        <v>1.16023845329915</v>
+        <v>155.921171</v>
       </c>
       <c r="I5">
-        <v>0.02382323789480989</v>
+        <v>0.9609723860600281</v>
       </c>
       <c r="J5">
-        <v>0.02382323789480989</v>
+        <v>0.9704070819667431</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>56.7837376171942</v>
+        <v>0.03279</v>
       </c>
       <c r="N5">
-        <v>56.7837376171942</v>
+        <v>0.09837</v>
       </c>
       <c r="O5">
-        <v>0.9267119681372367</v>
+        <v>0.0005118311684124526</v>
       </c>
       <c r="P5">
-        <v>0.9267119681372367</v>
+        <v>0.0005165088450446371</v>
       </c>
       <c r="Q5">
-        <v>65.88267590551817</v>
+        <v>1.70421839903</v>
       </c>
       <c r="R5">
-        <v>65.88267590551817</v>
+        <v>15.33796559127</v>
       </c>
       <c r="S5">
-        <v>0.02207727967690087</v>
+        <v>0.0004918556191692067</v>
       </c>
       <c r="T5">
-        <v>0.02207727967690087</v>
+        <v>0.000501223841129779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.16023845329915</v>
+        <v>51.97372366666667</v>
       </c>
       <c r="H6">
-        <v>1.16023845329915</v>
+        <v>155.921171</v>
       </c>
       <c r="I6">
-        <v>0.02382323789480989</v>
+        <v>0.9609723860600281</v>
       </c>
       <c r="J6">
-        <v>0.02382323789480989</v>
+        <v>0.9704070819667431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.29472873538252</v>
+        <v>1.7405575</v>
       </c>
       <c r="N6">
-        <v>3.29472873538252</v>
+        <v>3.481115</v>
       </c>
       <c r="O6">
-        <v>0.05377005246516409</v>
+        <v>0.02716900210167909</v>
       </c>
       <c r="P6">
-        <v>0.05377005246516409</v>
+        <v>0.01827820156671304</v>
       </c>
       <c r="Q6">
-        <v>3.82267097198048</v>
+        <v>90.46325453094417</v>
       </c>
       <c r="R6">
-        <v>3.82267097198048</v>
+        <v>542.7795271856651</v>
       </c>
       <c r="S6">
-        <v>0.001280976751494013</v>
+        <v>0.02610866077652048</v>
       </c>
       <c r="T6">
-        <v>0.001280976751494013</v>
+        <v>0.01773729624595395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.255776</v>
+      </c>
+      <c r="H7">
+        <v>0.767328</v>
+      </c>
+      <c r="I7">
+        <v>0.004729191131143244</v>
+      </c>
+      <c r="J7">
+        <v>0.004775621685084555</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>58.63918933333334</v>
+      </c>
+      <c r="N7">
+        <v>175.917568</v>
+      </c>
+      <c r="O7">
+        <v>0.915320670669077</v>
+      </c>
+      <c r="P7">
+        <v>0.923685878527411</v>
+      </c>
+      <c r="Q7">
+        <v>14.99849729092267</v>
+      </c>
+      <c r="R7">
+        <v>134.986475618304</v>
+      </c>
+      <c r="S7">
+        <v>0.004328726397880284</v>
+      </c>
+      <c r="T7">
+        <v>0.004411174311701883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.255776</v>
+      </c>
+      <c r="H8">
+        <v>0.767328</v>
+      </c>
+      <c r="I8">
+        <v>0.004729191131143244</v>
+      </c>
+      <c r="J8">
+        <v>0.004775621685084555</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.605681</v>
+      </c>
+      <c r="N8">
+        <v>10.817043</v>
+      </c>
+      <c r="O8">
+        <v>0.05628240070608663</v>
+      </c>
+      <c r="P8">
+        <v>0.0567967712384688</v>
+      </c>
+      <c r="Q8">
+        <v>0.922246663456</v>
+      </c>
+      <c r="R8">
+        <v>8.300219971103999</v>
+      </c>
+      <c r="S8">
+        <v>0.0002661702302586751</v>
+      </c>
+      <c r="T8">
+        <v>0.0002712398923692184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.255776</v>
+      </c>
+      <c r="H9">
+        <v>0.767328</v>
+      </c>
+      <c r="I9">
+        <v>0.004729191131143244</v>
+      </c>
+      <c r="J9">
+        <v>0.004775621685084555</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.045876</v>
+      </c>
+      <c r="N9">
+        <v>0.137628</v>
+      </c>
+      <c r="O9">
+        <v>0.0007160953547450344</v>
+      </c>
+      <c r="P9">
+        <v>0.0007226398223625426</v>
+      </c>
+      <c r="Q9">
+        <v>0.011733979776</v>
+      </c>
+      <c r="R9">
+        <v>0.105605817984</v>
+      </c>
+      <c r="S9">
+        <v>3.386551800713092E-06</v>
+      </c>
+      <c r="T9">
+        <v>3.451054406180209E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.255776</v>
+      </c>
+      <c r="H10">
+        <v>0.767328</v>
+      </c>
+      <c r="I10">
+        <v>0.004729191131143244</v>
+      </c>
+      <c r="J10">
+        <v>0.004775621685084555</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03279</v>
+      </c>
+      <c r="N10">
+        <v>0.09837</v>
+      </c>
+      <c r="O10">
+        <v>0.0005118311684124526</v>
+      </c>
+      <c r="P10">
+        <v>0.0005165088450446371</v>
+      </c>
+      <c r="Q10">
+        <v>0.00838689504</v>
+      </c>
+      <c r="R10">
+        <v>0.07548205535999999</v>
+      </c>
+      <c r="S10">
+        <v>2.420547422298855E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.466650840933147E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.255776</v>
+      </c>
+      <c r="H11">
+        <v>0.767328</v>
+      </c>
+      <c r="I11">
+        <v>0.004729191131143244</v>
+      </c>
+      <c r="J11">
+        <v>0.004775621685084555</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.7405575</v>
+      </c>
+      <c r="N11">
+        <v>3.481115</v>
+      </c>
+      <c r="O11">
+        <v>0.02716900210167909</v>
+      </c>
+      <c r="P11">
+        <v>0.01827820156671304</v>
+      </c>
+      <c r="Q11">
+        <v>0.44519283512</v>
+      </c>
+      <c r="R11">
+        <v>2.67115701072</v>
+      </c>
+      <c r="S11">
+        <v>0.0001284874037812729</v>
+      </c>
+      <c r="T11">
+        <v>8.728977576634129E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.277518</v>
+      </c>
+      <c r="H12">
+        <v>0.832554</v>
+      </c>
+      <c r="I12">
+        <v>0.005131191606454908</v>
+      </c>
+      <c r="J12">
+        <v>0.005181568946270547</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>58.63918933333334</v>
+      </c>
+      <c r="N12">
+        <v>175.917568</v>
+      </c>
+      <c r="O12">
+        <v>0.915320670669077</v>
+      </c>
+      <c r="P12">
+        <v>0.923685878527411</v>
+      </c>
+      <c r="Q12">
+        <v>16.273430545408</v>
+      </c>
+      <c r="R12">
+        <v>146.460874908672</v>
+      </c>
+      <c r="S12">
+        <v>0.004696685742551845</v>
+      </c>
+      <c r="T12">
+        <v>0.004786142064286262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.277518</v>
+      </c>
+      <c r="H13">
+        <v>0.832554</v>
+      </c>
+      <c r="I13">
+        <v>0.005131191606454908</v>
+      </c>
+      <c r="J13">
+        <v>0.005181568946270547</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.605681</v>
+      </c>
+      <c r="N13">
+        <v>10.817043</v>
+      </c>
+      <c r="O13">
+        <v>0.05628240070608663</v>
+      </c>
+      <c r="P13">
+        <v>0.0567967712384688</v>
+      </c>
+      <c r="Q13">
+        <v>1.000641379758</v>
+      </c>
+      <c r="R13">
+        <v>9.005772417822</v>
+      </c>
+      <c r="S13">
+        <v>0.0002887957820942035</v>
+      </c>
+      <c r="T13">
+        <v>0.0002942963860976821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.16023845329915</v>
-      </c>
-      <c r="H7">
-        <v>1.16023845329915</v>
-      </c>
-      <c r="I7">
-        <v>0.02382323789480989</v>
-      </c>
-      <c r="J7">
-        <v>0.02382323789480989</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.19595285162752</v>
-      </c>
-      <c r="N7">
-        <v>1.19595285162752</v>
-      </c>
-      <c r="O7">
-        <v>0.01951797939759928</v>
-      </c>
-      <c r="P7">
-        <v>0.01951797939759928</v>
-      </c>
-      <c r="Q7">
-        <v>1.387590486791022</v>
-      </c>
-      <c r="R7">
-        <v>1.387590486791022</v>
-      </c>
-      <c r="S7">
-        <v>0.0004649814664150058</v>
-      </c>
-      <c r="T7">
-        <v>0.0004649814664150058</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.277518</v>
+      </c>
+      <c r="H14">
+        <v>0.832554</v>
+      </c>
+      <c r="I14">
+        <v>0.005131191606454908</v>
+      </c>
+      <c r="J14">
+        <v>0.005181568946270547</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.045876</v>
+      </c>
+      <c r="N14">
+        <v>0.137628</v>
+      </c>
+      <c r="O14">
+        <v>0.0007160953547450344</v>
+      </c>
+      <c r="P14">
+        <v>0.0007226398223625426</v>
+      </c>
+      <c r="Q14">
+        <v>0.012731415768</v>
+      </c>
+      <c r="R14">
+        <v>0.114582741912</v>
+      </c>
+      <c r="S14">
+        <v>3.67442247368907E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.744408062892215E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.277518</v>
+      </c>
+      <c r="H15">
+        <v>0.832554</v>
+      </c>
+      <c r="I15">
+        <v>0.005131191606454908</v>
+      </c>
+      <c r="J15">
+        <v>0.005181568946270547</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03279</v>
+      </c>
+      <c r="N15">
+        <v>0.09837</v>
+      </c>
+      <c r="O15">
+        <v>0.0005118311684124526</v>
+      </c>
+      <c r="P15">
+        <v>0.0005165088450446371</v>
+      </c>
+      <c r="Q15">
+        <v>0.00909981522</v>
+      </c>
+      <c r="R15">
+        <v>0.08189833698</v>
+      </c>
+      <c r="S15">
+        <v>2.626303795279986E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.676326191957358E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.277518</v>
+      </c>
+      <c r="H16">
+        <v>0.832554</v>
+      </c>
+      <c r="I16">
+        <v>0.005131191606454908</v>
+      </c>
+      <c r="J16">
+        <v>0.005181568946270547</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.7405575</v>
+      </c>
+      <c r="N16">
+        <v>3.481115</v>
+      </c>
+      <c r="O16">
+        <v>0.02716900210167909</v>
+      </c>
+      <c r="P16">
+        <v>0.01827820156671304</v>
+      </c>
+      <c r="Q16">
+        <v>0.483036036285</v>
+      </c>
+      <c r="R16">
+        <v>2.89821621771</v>
+      </c>
+      <c r="S16">
+        <v>0.0001394093555398915</v>
+      </c>
+      <c r="T16">
+        <v>9.470976163175397E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.5774955</v>
+      </c>
+      <c r="H17">
+        <v>3.154991</v>
+      </c>
+      <c r="I17">
+        <v>0.02916723120237386</v>
+      </c>
+      <c r="J17">
+        <v>0.01963572740190193</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>58.63918933333334</v>
+      </c>
+      <c r="N17">
+        <v>175.917568</v>
+      </c>
+      <c r="O17">
+        <v>0.915320670669077</v>
+      </c>
+      <c r="P17">
+        <v>0.923685878527411</v>
+      </c>
+      <c r="Q17">
+        <v>92.50305729698134</v>
+      </c>
+      <c r="R17">
+        <v>555.018343781888</v>
+      </c>
+      <c r="S17">
+        <v>0.02669736962571687</v>
+      </c>
+      <c r="T17">
+        <v>0.01813724411575054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.5774955</v>
+      </c>
+      <c r="H18">
+        <v>3.154991</v>
+      </c>
+      <c r="I18">
+        <v>0.02916723120237386</v>
+      </c>
+      <c r="J18">
+        <v>0.01963572740190193</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.605681</v>
+      </c>
+      <c r="N18">
+        <v>10.817043</v>
+      </c>
+      <c r="O18">
+        <v>0.05628240070608663</v>
+      </c>
+      <c r="P18">
+        <v>0.0567967712384688</v>
+      </c>
+      <c r="Q18">
+        <v>5.6879455519355</v>
+      </c>
+      <c r="R18">
+        <v>34.127673311613</v>
+      </c>
+      <c r="S18">
+        <v>0.001641601794019079</v>
+      </c>
+      <c r="T18">
+        <v>0.001115245917346757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.5774955</v>
+      </c>
+      <c r="H19">
+        <v>3.154991</v>
+      </c>
+      <c r="I19">
+        <v>0.02916723120237386</v>
+      </c>
+      <c r="J19">
+        <v>0.01963572740190193</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.045876</v>
+      </c>
+      <c r="N19">
+        <v>0.137628</v>
+      </c>
+      <c r="O19">
+        <v>0.0007160953547450344</v>
+      </c>
+      <c r="P19">
+        <v>0.0007226398223625426</v>
+      </c>
+      <c r="Q19">
+        <v>0.072369183558</v>
+      </c>
+      <c r="R19">
+        <v>0.434215101348</v>
+      </c>
+      <c r="S19">
+        <v>2.088651877479435E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.418955856166972E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.5774955</v>
+      </c>
+      <c r="H20">
+        <v>3.154991</v>
+      </c>
+      <c r="I20">
+        <v>0.02916723120237386</v>
+      </c>
+      <c r="J20">
+        <v>0.01963572740190193</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03279</v>
+      </c>
+      <c r="N20">
+        <v>0.09837</v>
+      </c>
+      <c r="O20">
+        <v>0.0005118311684124526</v>
+      </c>
+      <c r="P20">
+        <v>0.0005165088450446371</v>
+      </c>
+      <c r="Q20">
+        <v>0.051726077445</v>
+      </c>
+      <c r="R20">
+        <v>0.31035646467</v>
+      </c>
+      <c r="S20">
+        <v>1.492869802566716E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.01420268819677E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.5774955</v>
+      </c>
+      <c r="H21">
+        <v>3.154991</v>
+      </c>
+      <c r="I21">
+        <v>0.02916723120237386</v>
+      </c>
+      <c r="J21">
+        <v>0.01963572740190193</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.7405575</v>
+      </c>
+      <c r="N21">
+        <v>3.481115</v>
+      </c>
+      <c r="O21">
+        <v>0.02716900210167909</v>
+      </c>
+      <c r="P21">
+        <v>0.01827820156671304</v>
+      </c>
+      <c r="Q21">
+        <v>2.74572162374125</v>
+      </c>
+      <c r="R21">
+        <v>10.982886494965</v>
+      </c>
+      <c r="S21">
+        <v>0.0007924445658374555</v>
+      </c>
+      <c r="T21">
+        <v>0.0003589057833609941</v>
       </c>
     </row>
   </sheetData>
